--- a/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -312,6 +312,12 @@
   <si>
     <t>韩淑芳</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1339,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1467,9 +1473,15 @@
       <c r="N2" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="54">
+        <v>42718</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>91</v>
+      </c>
       <c r="R2" s="59"/>
       <c r="S2" s="59"/>
       <c r="T2" s="67"/>
@@ -1517,9 +1529,15 @@
       <c r="N3" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="62"/>
+      <c r="O3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="54">
+        <v>42718</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>91</v>
+      </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="67"/>
